--- a/reading.xlsx
+++ b/reading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13335"/>
+    <workbookView windowWidth="13515" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334">
   <si>
     <t>free</t>
   </si>
@@ -599,6 +599,423 @@
   </si>
   <si>
     <t>选择</t>
+  </si>
+  <si>
+    <t>divergence</t>
+  </si>
+  <si>
+    <t>分歧 不同</t>
+  </si>
+  <si>
+    <t>elaborately</t>
+  </si>
+  <si>
+    <t>精心制作的</t>
+  </si>
+  <si>
+    <t>deliberate</t>
+  </si>
+  <si>
+    <t>故意的</t>
+  </si>
+  <si>
+    <t>drastic</t>
+  </si>
+  <si>
+    <t>radical</t>
+  </si>
+  <si>
+    <t>极端的 激烈的</t>
+  </si>
+  <si>
+    <t>entomb</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>埋葬 陷入</t>
+  </si>
+  <si>
+    <t>marked</t>
+  </si>
+  <si>
+    <t>pronounced</t>
+  </si>
+  <si>
+    <t>显著的 明显的</t>
+  </si>
+  <si>
+    <t>ushering in</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>迎来</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>素描</t>
+  </si>
+  <si>
+    <t>preside over</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>主持 管理 对...负有责任</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>实体</t>
+  </si>
+  <si>
+    <t>motif</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>主题 基本图案 动机</t>
+  </si>
+  <si>
+    <t>stringent</t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>严格的</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>命令 口述 听写 控制 支配</t>
+  </si>
+  <si>
+    <t>a break with</t>
+  </si>
+  <si>
+    <t>a departure from</t>
+  </si>
+  <si>
+    <t>离开 违背</t>
+  </si>
+  <si>
+    <t>forage</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>预防 防止</t>
+  </si>
+  <si>
+    <t>fixture</t>
+  </si>
+  <si>
+    <t>commonplace object</t>
+  </si>
+  <si>
+    <t>固定在某处的物品</t>
+  </si>
+  <si>
+    <t>readily</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>乐意的 快捷的 便利的</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>争论</t>
+  </si>
+  <si>
+    <t>propel</t>
+  </si>
+  <si>
+    <t>推进</t>
+  </si>
+  <si>
+    <t>exert</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>运用 发挥</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>扩散</t>
+  </si>
+  <si>
+    <t>rupture</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>断裂 破裂</t>
+  </si>
+  <si>
+    <t>minuscule</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>极小的</t>
+  </si>
+  <si>
+    <t>aesthetically</t>
+  </si>
+  <si>
+    <t>artistically</t>
+  </si>
+  <si>
+    <t>美学上的</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>meaningful</t>
+  </si>
+  <si>
+    <t>提神的 耳目一新的</t>
+  </si>
+  <si>
+    <t>adorn</t>
+  </si>
+  <si>
+    <t>decorate</t>
+  </si>
+  <si>
+    <t>配饰 装饰</t>
+  </si>
+  <si>
+    <t>bead</t>
+  </si>
+  <si>
+    <t>珠子</t>
+  </si>
+  <si>
+    <t>attire</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>服饰 衣服</t>
+  </si>
+  <si>
+    <t>unravel</t>
+  </si>
+  <si>
+    <t>discover</t>
+  </si>
+  <si>
+    <t>解开 拆散</t>
+  </si>
+  <si>
+    <t>mundane</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>世俗的 平凡的</t>
+  </si>
+  <si>
+    <t>deft</t>
+  </si>
+  <si>
+    <t>skilled</t>
+  </si>
+  <si>
+    <t>心灵手巧的 熟练的</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>精力充沛的 坚定地 粗野的</t>
+  </si>
+  <si>
+    <t>herald</t>
+  </si>
+  <si>
+    <t>announce</t>
+  </si>
+  <si>
+    <t>通报 传达 预告</t>
+  </si>
+  <si>
+    <t>symmetrical</t>
+  </si>
+  <si>
+    <t>proportionally balanced</t>
+  </si>
+  <si>
+    <t>supplements</t>
+  </si>
+  <si>
+    <t>extensions</t>
+  </si>
+  <si>
+    <t>补给 额外费用</t>
+  </si>
+  <si>
+    <t>skepticism</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>怀疑</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>紧迫</t>
+  </si>
+  <si>
+    <t>subsidy</t>
+  </si>
+  <si>
+    <t>financing</t>
+  </si>
+  <si>
+    <t>津贴 奖金</t>
+  </si>
+  <si>
+    <t>conjectural</t>
+  </si>
+  <si>
+    <t>based on guessing</t>
+  </si>
+  <si>
+    <t>推测的</t>
+  </si>
+  <si>
+    <t>assortment</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>exalted</t>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>高贵的高尚的</t>
+  </si>
+  <si>
+    <t>come of age</t>
+  </si>
+  <si>
+    <t>establish itself</t>
+  </si>
+  <si>
+    <t>成年</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>痕迹 印记</t>
+  </si>
+  <si>
+    <t>adversely</t>
+  </si>
+  <si>
+    <t>negatively</t>
+  </si>
+  <si>
+    <t>反对的 不利的</t>
+  </si>
+  <si>
+    <t>detectable</t>
+  </si>
+  <si>
+    <t>measurable</t>
+  </si>
+  <si>
+    <t>可发觉 可预见 可度量</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t>尖锐的 敏感的 严重的</t>
+  </si>
+  <si>
+    <t>astounding</t>
+  </si>
+  <si>
+    <t>surprising</t>
+  </si>
+  <si>
+    <t>震惊的</t>
+  </si>
+  <si>
+    <t>customarily</t>
+  </si>
+  <si>
+    <t>usually</t>
+  </si>
+  <si>
+    <t>习俗上 通常</t>
   </si>
 </sst>
 </file>
@@ -607,11 +1024,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,10 +1051,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,9 +1075,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,22 +1097,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,9 +1123,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,33 +1137,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,11 +1158,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,19 +1203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +1227,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,139 +1365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,17 +1391,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,18 +1441,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,17 +1455,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,16 +1475,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,153 +1493,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,16 +1960,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D68"/>
+  <dimension ref="B1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="18.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2267,6 +2694,527 @@
         <v>194</v>
       </c>
     </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" t="s">
+        <v>315</v>
+      </c>
+      <c r="D111" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C112" t="s">
+        <v>318</v>
+      </c>
+      <c r="D112" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D114" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D116" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" t="s">
+        <v>332</v>
+      </c>
+      <c r="D117" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
   <si>
     <t>free</t>
   </si>
@@ -1016,6 +1016,156 @@
   </si>
   <si>
     <t>习俗上 通常</t>
+  </si>
+  <si>
+    <t>exposed to</t>
+  </si>
+  <si>
+    <t>subjected to</t>
+  </si>
+  <si>
+    <t>暴露于 遭受</t>
+  </si>
+  <si>
+    <t>induce</t>
+  </si>
+  <si>
+    <t>诱导 引起</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>发挥 运用</t>
+  </si>
+  <si>
+    <t>intricate</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>错综复杂的</t>
+  </si>
+  <si>
+    <t>an army of</t>
+  </si>
+  <si>
+    <t>a large number of</t>
+  </si>
+  <si>
+    <t>一大群</t>
+  </si>
+  <si>
+    <t>unadorned</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>朴素的 未装饰的</t>
+  </si>
+  <si>
+    <t>prominent</t>
+  </si>
+  <si>
+    <t>突出的 杰出的</t>
+  </si>
+  <si>
+    <t>eagerly anticipate</t>
+  </si>
+  <si>
+    <t>look forward to</t>
+  </si>
+  <si>
+    <t>热切期望</t>
+  </si>
+  <si>
+    <t>be ascribed to</t>
+  </si>
+  <si>
+    <t>归因于</t>
+  </si>
+  <si>
+    <t>appeal</t>
+  </si>
+  <si>
+    <t>attraction</t>
+  </si>
+  <si>
+    <t>有吸引力 提起注意 要求 上诉</t>
+  </si>
+  <si>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>大量生产 引起</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>identify</t>
+  </si>
+  <si>
+    <t>认出 定位 地点 现场的</t>
+  </si>
+  <si>
+    <t>dogma</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>教条 信仰</t>
+  </si>
+  <si>
+    <t>obstruction</t>
+  </si>
+  <si>
+    <t>障碍物</t>
+  </si>
+  <si>
+    <t>shy away from</t>
+  </si>
+  <si>
+    <t>躲开</t>
+  </si>
+  <si>
+    <t>jolting</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>震惊</t>
+  </si>
+  <si>
+    <t>attachment to</t>
+  </si>
+  <si>
+    <t>preference for</t>
+  </si>
+  <si>
+    <t>依恋 附属</t>
+  </si>
+  <si>
+    <t>protruding</t>
+  </si>
+  <si>
+    <t>projecting</t>
+  </si>
+  <si>
+    <t>伸出 凸出</t>
+  </si>
+  <si>
+    <t>daring</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>勇敢 鲁莽</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1051,30 +1201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1089,9 +1215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,66 +1225,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,8 +1246,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,7 +1353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,13 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,7 +1413,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,13 +1467,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,103 +1515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,6 +1538,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1405,21 +1594,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,15 +1624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1473,168 +1638,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1960,10 +2110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D117"/>
+  <dimension ref="B1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2733,7 +2883,7 @@
       </c>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>204</v>
       </c>
       <c r="C73" t="s">
@@ -2747,7 +2897,7 @@
       <c r="B74" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>208</v>
       </c>
       <c r="D74" t="s">
@@ -2755,10 +2905,10 @@
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>211</v>
       </c>
       <c r="D75" t="s">
@@ -2777,7 +2927,7 @@
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>216</v>
       </c>
       <c r="C77" t="s">
@@ -2788,7 +2938,7 @@
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>219</v>
       </c>
       <c r="C78" t="s">
@@ -2832,7 +2982,7 @@
       </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>231</v>
       </c>
       <c r="C82" t="s">
@@ -2865,7 +3015,7 @@
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>240</v>
       </c>
       <c r="C85" t="s">
@@ -2876,10 +3026,10 @@
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>244</v>
       </c>
       <c r="D86" t="s">
@@ -2906,7 +3056,7 @@
       </c>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>251</v>
       </c>
       <c r="C89" t="s">
@@ -2928,10 +3078,10 @@
       </c>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>257</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>258</v>
       </c>
       <c r="D91" t="s">
@@ -2939,10 +3089,10 @@
       </c>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>261</v>
       </c>
       <c r="D92" t="s">
@@ -2950,10 +3100,10 @@
       </c>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>263</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>264</v>
       </c>
       <c r="D93" t="s">
@@ -2961,10 +3111,10 @@
       </c>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>267</v>
       </c>
       <c r="D94" t="s">
@@ -3038,7 +3188,7 @@
       <c r="B101" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>287</v>
       </c>
       <c r="D101" t="s">
@@ -3057,18 +3207,18 @@
       </c>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>292</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>295</v>
       </c>
       <c r="D104" t="s">
@@ -3076,7 +3226,7 @@
       </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>297</v>
       </c>
       <c r="C105" t="s">
@@ -3087,7 +3237,7 @@
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>300</v>
       </c>
       <c r="D106" t="s">
@@ -3095,10 +3245,10 @@
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>302</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>303</v>
       </c>
       <c r="D107" t="s">
@@ -3106,10 +3256,10 @@
       </c>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>305</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>306</v>
       </c>
       <c r="D108" t="s">
@@ -3117,10 +3267,10 @@
       </c>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>308</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>309</v>
       </c>
       <c r="D109" t="s">
@@ -3128,10 +3278,10 @@
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>311</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>312</v>
       </c>
       <c r="D110" t="s">
@@ -3139,7 +3289,7 @@
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>314</v>
       </c>
       <c r="C111" t="s">
@@ -3150,7 +3300,7 @@
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>317</v>
       </c>
       <c r="C112" t="s">
@@ -3161,10 +3311,10 @@
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>320</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>321</v>
       </c>
       <c r="D113" t="s">
@@ -3172,10 +3322,10 @@
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>323</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" t="s">
         <v>324</v>
       </c>
       <c r="D114" t="s">
@@ -3183,10 +3333,10 @@
       </c>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>326</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>79</v>
       </c>
       <c r="D115" t="s">
@@ -3194,10 +3344,10 @@
       </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>328</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>329</v>
       </c>
       <c r="D116" t="s">
@@ -3205,7 +3355,7 @@
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>331</v>
       </c>
       <c r="C117" t="s">
@@ -3213,6 +3363,209 @@
       </c>
       <c r="D117" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C118" t="s">
+        <v>335</v>
+      </c>
+      <c r="D118" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" t="s">
+        <v>339</v>
+      </c>
+      <c r="D120" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D121" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>344</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D122" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D123" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D125" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D126" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" t="s">
+        <v>74</v>
+      </c>
+      <c r="D128" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" t="s">
+        <v>363</v>
+      </c>
+      <c r="D129" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" t="s">
+        <v>366</v>
+      </c>
+      <c r="D130" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>368</v>
+      </c>
+      <c r="D131" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D134" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D135" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D136" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506">
   <si>
     <t>free</t>
   </si>
@@ -1166,6 +1166,372 @@
   </si>
   <si>
     <t>勇敢 鲁莽</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>增加</t>
+  </si>
+  <si>
+    <t>inhibit</t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>抑制 禁止 阻碍</t>
+  </si>
+  <si>
+    <t>counterpart</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>副本 版本</t>
+  </si>
+  <si>
+    <t>sumptuous</t>
+  </si>
+  <si>
+    <t>luxurious</t>
+  </si>
+  <si>
+    <t>奢华的 豪华的</t>
+  </si>
+  <si>
+    <t>rapidity</t>
+  </si>
+  <si>
+    <t>swiftness</t>
+  </si>
+  <si>
+    <t>迅速</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>effectiveness</t>
+  </si>
+  <si>
+    <t>功效 效率</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>养育 饲养 抬起 背后</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>攀登 规模 级别 衡量</t>
+  </si>
+  <si>
+    <t>immunity</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>免疫力 免除</t>
+  </si>
+  <si>
+    <t>conspicuous</t>
+  </si>
+  <si>
+    <t>noticeable</t>
+  </si>
+  <si>
+    <t>明显的 显而易见的</t>
+  </si>
+  <si>
+    <t>embrace</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>拥抱 欢迎</t>
+  </si>
+  <si>
+    <t>exorbitant</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>过度的 极高的</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>爆发</t>
+  </si>
+  <si>
+    <t>consort</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>配偶 伙伴 关联</t>
+  </si>
+  <si>
+    <t>吸引</t>
+  </si>
+  <si>
+    <t>annihilate</t>
+  </si>
+  <si>
+    <t>conquer</t>
+  </si>
+  <si>
+    <t>歼灭 战胜，征服 克服</t>
+  </si>
+  <si>
+    <t>aptly</t>
+  </si>
+  <si>
+    <t>appropriately</t>
+  </si>
+  <si>
+    <t>适当的</t>
+  </si>
+  <si>
+    <t>staple</t>
+  </si>
+  <si>
+    <t>basic element</t>
+  </si>
+  <si>
+    <t>主食 主要产品 最基本的</t>
+  </si>
+  <si>
+    <t>contemporary</t>
+  </si>
+  <si>
+    <t>existing</t>
+  </si>
+  <si>
+    <t>当代的 同时代的</t>
+  </si>
+  <si>
+    <t>finely</t>
+  </si>
+  <si>
+    <t>minutely</t>
+  </si>
+  <si>
+    <t>细微的 精细的 美好的</t>
+  </si>
+  <si>
+    <t>exponential leaps</t>
+  </si>
+  <si>
+    <t>rapid increases</t>
+  </si>
+  <si>
+    <t>指数级跳跃</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>pertinent</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>有关的 恰当的</t>
+  </si>
+  <si>
+    <t>succinct</t>
+  </si>
+  <si>
+    <t>concise</t>
+  </si>
+  <si>
+    <t>简明的 简洁的</t>
+  </si>
+  <si>
+    <t>revise</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>修订 修改</t>
+  </si>
+  <si>
+    <t>tardy</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>缓慢的</t>
+  </si>
+  <si>
+    <t>discounted</t>
+  </si>
+  <si>
+    <t>disregarded</t>
+  </si>
+  <si>
+    <t>不重视 不理会，打折，regard 注视</t>
+  </si>
+  <si>
+    <t>hamper</t>
+  </si>
+  <si>
+    <t>impede</t>
+  </si>
+  <si>
+    <t>妨碍 阻碍</t>
+  </si>
+  <si>
+    <t>sensational</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <t>极好的 耸人听闻的 轰动的，惊人的 壮观的</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>arrangement</t>
+  </si>
+  <si>
+    <t>作文 作曲 创作 布置</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>retract</t>
+  </si>
+  <si>
+    <t>pull back</t>
+  </si>
+  <si>
+    <t>回撤</t>
+  </si>
+  <si>
+    <t>spiraling</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>盘旋上升</t>
+  </si>
+  <si>
+    <t>more modest</t>
+  </si>
+  <si>
+    <t>less ambitious</t>
+  </si>
+  <si>
+    <t>谦虚</t>
+  </si>
+  <si>
+    <t>sophisticated</t>
+  </si>
+  <si>
+    <t>复杂的</t>
+  </si>
+  <si>
+    <t>timid</t>
+  </si>
+  <si>
+    <t>胆小的</t>
+  </si>
+  <si>
+    <t>controversial</t>
+  </si>
+  <si>
+    <t>有争议的</t>
+  </si>
+  <si>
+    <t>unattached</t>
+  </si>
+  <si>
+    <t>unmarried</t>
+  </si>
+  <si>
+    <t>未婚的</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>模式 图案</t>
+  </si>
+  <si>
+    <t>monochrome</t>
+  </si>
+  <si>
+    <t>one-color</t>
+  </si>
+  <si>
+    <t>单色的</t>
+  </si>
+  <si>
+    <t>eerily</t>
+  </si>
+  <si>
+    <t>strangely</t>
+  </si>
+  <si>
+    <t>引起神秘的</t>
+  </si>
+  <si>
+    <t>surpass</t>
+  </si>
+  <si>
+    <t>超过</t>
+  </si>
+  <si>
+    <t>surplus</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>undiminished</t>
+  </si>
+  <si>
+    <t>not lessened</t>
+  </si>
+  <si>
+    <t>未减少 未削弱，lessen 减少</t>
+  </si>
+  <si>
+    <t>vow</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>誓言</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1539,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1195,6 +1561,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1208,23 +1581,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,7 +1606,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,31 +1622,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,9 +1658,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,6 +1673,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1309,30 +1688,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,7 +1719,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1767,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,139 +1893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,6 +1904,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1552,48 +1936,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,153 +1980,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2110,17 +2476,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D136"/>
+  <dimension ref="B1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="35.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -3366,7 +3732,7 @@
       </c>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>334</v>
       </c>
       <c r="C118" t="s">
@@ -3377,10 +3743,10 @@
       </c>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>337</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>252</v>
       </c>
       <c r="D119" t="s">
@@ -3399,10 +3765,10 @@
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>341</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>342</v>
       </c>
       <c r="D121" t="s">
@@ -3413,7 +3779,7 @@
       <c r="B122" t="s">
         <v>344</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>345</v>
       </c>
       <c r="D122" t="s">
@@ -3421,10 +3787,10 @@
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>347</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>348</v>
       </c>
       <c r="D123" t="s">
@@ -3432,10 +3798,10 @@
       </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>350</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>47</v>
       </c>
       <c r="D124" t="s">
@@ -3446,7 +3812,7 @@
       <c r="B125" t="s">
         <v>352</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>353</v>
       </c>
       <c r="D125" t="s">
@@ -3454,7 +3820,7 @@
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>355</v>
       </c>
       <c r="D126" t="s">
@@ -3465,7 +3831,7 @@
       <c r="B127" t="s">
         <v>357</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>358</v>
       </c>
       <c r="D127" t="s">
@@ -3484,7 +3850,7 @@
       </c>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>362</v>
       </c>
       <c r="C129" t="s">
@@ -3495,7 +3861,7 @@
       </c>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>365</v>
       </c>
       <c r="C130" t="s">
@@ -3525,10 +3891,10 @@
       </c>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>372</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" t="s">
         <v>373</v>
       </c>
       <c r="D133" t="s">
@@ -3536,10 +3902,10 @@
       </c>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>375</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" t="s">
         <v>376</v>
       </c>
       <c r="D134" t="s">
@@ -3550,7 +3916,7 @@
       <c r="B135" t="s">
         <v>378</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" t="s">
         <v>379</v>
       </c>
       <c r="D135" t="s">
@@ -3558,14 +3924,494 @@
       </c>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>381</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" t="s">
         <v>382</v>
       </c>
       <c r="D136" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>384</v>
+      </c>
+      <c r="C137" t="s">
+        <v>385</v>
+      </c>
+      <c r="D137" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>387</v>
+      </c>
+      <c r="C138" t="s">
+        <v>388</v>
+      </c>
+      <c r="D138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>390</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D139" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>393</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D140" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D141" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D142" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D143" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D145" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D146" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D147" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D148" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D150" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D151" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D152" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D153" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>430</v>
+      </c>
+      <c r="C154" t="s">
+        <v>431</v>
+      </c>
+      <c r="D154" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D155" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D156" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
+        <v>228</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D158" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D159" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D160" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D161" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D162" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D163" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" t="s">
+        <v>458</v>
+      </c>
+      <c r="C164" t="s">
+        <v>459</v>
+      </c>
+      <c r="D164" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D165" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D166" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" t="s">
+        <v>467</v>
+      </c>
+      <c r="C167" t="s">
+        <v>468</v>
+      </c>
+      <c r="D167" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" t="s">
+        <v>470</v>
+      </c>
+      <c r="C168" t="s">
+        <v>471</v>
+      </c>
+      <c r="D168" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" t="s">
+        <v>473</v>
+      </c>
+      <c r="C169" t="s">
+        <v>474</v>
+      </c>
+      <c r="D169" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" t="s">
+        <v>476</v>
+      </c>
+      <c r="C170" t="s">
+        <v>477</v>
+      </c>
+      <c r="D170" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" t="s">
+        <v>479</v>
+      </c>
+      <c r="D171" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D172" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D173" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D174" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D175" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D176" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D177" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D178" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
+        <v>498</v>
+      </c>
+      <c r="D179" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D180" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>503</v>
+      </c>
+      <c r="C181" t="s">
+        <v>504</v>
+      </c>
+      <c r="D181" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578">
   <si>
     <t>free</t>
   </si>
@@ -1532,6 +1532,222 @@
   </si>
   <si>
     <t>誓言</t>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <t>保持 保留</t>
+  </si>
+  <si>
+    <t>divergent</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>发散的 有分歧的</t>
+  </si>
+  <si>
+    <t>unwieldy</t>
+  </si>
+  <si>
+    <t>unmanageable</t>
+  </si>
+  <si>
+    <t>笨拙的 难以处理的，wield 行使 使用，wild野生</t>
+  </si>
+  <si>
+    <t>illuminated</t>
+  </si>
+  <si>
+    <t>clarified</t>
+  </si>
+  <si>
+    <t>被照明的 发光的</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>持久的 耐用的 长期的</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>原始的</t>
+  </si>
+  <si>
+    <t>on the threshold of</t>
+  </si>
+  <si>
+    <t>at the start of</t>
+  </si>
+  <si>
+    <t>在...的门槛上</t>
+  </si>
+  <si>
+    <t>imitation</t>
+  </si>
+  <si>
+    <t>copying</t>
+  </si>
+  <si>
+    <t>模仿</t>
+  </si>
+  <si>
+    <t>barter</t>
+  </si>
+  <si>
+    <t>exchang</t>
+  </si>
+  <si>
+    <t>以物换物 交换</t>
+  </si>
+  <si>
+    <t>supplant</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>排挤 取代</t>
+  </si>
+  <si>
+    <t>charged with</t>
+  </si>
+  <si>
+    <t>assigned to</t>
+  </si>
+  <si>
+    <t>被分配，被控告</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>最好的 首要的 最初的 基本的</t>
+  </si>
+  <si>
+    <t>incised</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>切入的 雕刻的</t>
+  </si>
+  <si>
+    <t>tend</t>
+  </si>
+  <si>
+    <t>care for</t>
+  </si>
+  <si>
+    <t>照顾，倾向</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>准备 供应 条款</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>优势，边缘</t>
+  </si>
+  <si>
+    <t>regardless</t>
+  </si>
+  <si>
+    <t>不管怎么样</t>
+  </si>
+  <si>
+    <t>envelop</t>
+  </si>
+  <si>
+    <t>surround</t>
+  </si>
+  <si>
+    <t>包围，envelope 信封</t>
+  </si>
+  <si>
+    <t>gradually</t>
+  </si>
+  <si>
+    <t>by degrees</t>
+  </si>
+  <si>
+    <t>逐步的 逐渐的，degrees 程度</t>
+  </si>
+  <si>
+    <t>scattered</t>
+  </si>
+  <si>
+    <t>irregularly distributed</t>
+  </si>
+  <si>
+    <t>分散的</t>
+  </si>
+  <si>
+    <t>by virtue of</t>
+  </si>
+  <si>
+    <t>taking advantage of</t>
+  </si>
+  <si>
+    <t>凭借...的力量 由于</t>
+  </si>
+  <si>
+    <t>circumscribe</t>
+  </si>
+  <si>
+    <t>restricte</t>
+  </si>
+  <si>
+    <t>限制 划定范围</t>
+  </si>
+  <si>
+    <t>indeterminate</t>
+  </si>
+  <si>
+    <t>uncertain</t>
+  </si>
+  <si>
+    <t>不定的 不明确的</t>
+  </si>
+  <si>
+    <t>thwart</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>阻挠 挫败 横着的</t>
+  </si>
+  <si>
+    <t>hardiest</t>
+  </si>
+  <si>
+    <t>most vigorous</t>
+  </si>
+  <si>
+    <t>能吃苦耐劳的 坚强的</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1755,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1582,7 +1798,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1596,11 +1812,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1620,24 +1836,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,23 +1882,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1681,24 +1905,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1719,19 +1935,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,67 +1977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,7 +2001,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,25 +2097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,31 +2109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,15 +2132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1940,16 +2147,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1985,22 +2192,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2009,142 +2225,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2476,17 +2692,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D181"/>
+  <dimension ref="B1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="39.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -3960,7 +4176,7 @@
       <c r="B139" t="s">
         <v>390</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" t="s">
         <v>391</v>
       </c>
       <c r="D139" t="s">
@@ -3971,7 +4187,7 @@
       <c r="B140" t="s">
         <v>393</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" t="s">
         <v>394</v>
       </c>
       <c r="D140" t="s">
@@ -3979,10 +4195,10 @@
       </c>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>396</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" t="s">
         <v>397</v>
       </c>
       <c r="D141" t="s">
@@ -3990,10 +4206,10 @@
       </c>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>399</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" t="s">
         <v>400</v>
       </c>
       <c r="D142" t="s">
@@ -4001,10 +4217,10 @@
       </c>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>402</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" t="s">
         <v>385</v>
       </c>
       <c r="D143" t="s">
@@ -4012,10 +4228,10 @@
       </c>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>404</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" t="s">
         <v>68</v>
       </c>
       <c r="D144" t="s">
@@ -4023,10 +4239,10 @@
       </c>
     </row>
     <row r="145" spans="2:4">
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>406</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" t="s">
         <v>407</v>
       </c>
       <c r="D145" t="s">
@@ -4034,10 +4250,10 @@
       </c>
     </row>
     <row r="146" spans="2:4">
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" t="s">
         <v>410</v>
       </c>
       <c r="D146" t="s">
@@ -4045,10 +4261,10 @@
       </c>
     </row>
     <row r="147" spans="2:4">
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>412</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" t="s">
         <v>413</v>
       </c>
       <c r="D147" t="s">
@@ -4056,10 +4272,10 @@
       </c>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>415</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" t="s">
         <v>416</v>
       </c>
       <c r="D148" t="s">
@@ -4067,10 +4283,10 @@
       </c>
     </row>
     <row r="149" spans="2:4">
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>418</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>211</v>
       </c>
       <c r="D149" t="s">
@@ -4078,10 +4294,10 @@
       </c>
     </row>
     <row r="150" spans="2:4">
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>420</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" t="s">
         <v>421</v>
       </c>
       <c r="D150" t="s">
@@ -4089,10 +4305,10 @@
       </c>
     </row>
     <row r="151" spans="2:4">
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>143</v>
       </c>
       <c r="D151" t="s">
@@ -4100,10 +4316,10 @@
       </c>
     </row>
     <row r="152" spans="2:4">
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>424</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" t="s">
         <v>425</v>
       </c>
       <c r="D152" t="s">
@@ -4111,10 +4327,10 @@
       </c>
     </row>
     <row r="153" spans="2:4">
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>427</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>428</v>
       </c>
       <c r="D153" t="s">
@@ -4133,10 +4349,10 @@
       </c>
     </row>
     <row r="155" spans="2:4">
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>433</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" t="s">
         <v>434</v>
       </c>
       <c r="D155" t="s">
@@ -4144,10 +4360,10 @@
       </c>
     </row>
     <row r="156" spans="2:4">
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>436</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" t="s">
         <v>437</v>
       </c>
       <c r="D156" t="s">
@@ -4155,10 +4371,10 @@
       </c>
     </row>
     <row r="157" spans="2:4">
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>439</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" t="s">
         <v>440</v>
       </c>
       <c r="D157" t="s">
@@ -4169,7 +4385,7 @@
       <c r="B158" t="s">
         <v>228</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" t="s">
         <v>229</v>
       </c>
       <c r="D158" t="s">
@@ -4177,10 +4393,10 @@
       </c>
     </row>
     <row r="159" spans="2:4">
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>443</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" t="s">
         <v>444</v>
       </c>
       <c r="D159" t="s">
@@ -4188,10 +4404,10 @@
       </c>
     </row>
     <row r="160" spans="2:4">
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>446</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" t="s">
         <v>447</v>
       </c>
       <c r="D160" t="s">
@@ -4199,10 +4415,10 @@
       </c>
     </row>
     <row r="161" spans="2:4">
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>449</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" t="s">
         <v>450</v>
       </c>
       <c r="D161" t="s">
@@ -4210,10 +4426,10 @@
       </c>
     </row>
     <row r="162" spans="2:4">
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>452</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" t="s">
         <v>453</v>
       </c>
       <c r="D162" t="s">
@@ -4221,10 +4437,10 @@
       </c>
     </row>
     <row r="163" spans="2:4">
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>455</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" t="s">
         <v>456</v>
       </c>
       <c r="D163" t="s">
@@ -4243,10 +4459,10 @@
       </c>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>461</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" t="s">
         <v>462</v>
       </c>
       <c r="D165" t="s">
@@ -4254,10 +4470,10 @@
       </c>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>464</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" t="s">
         <v>465</v>
       </c>
       <c r="D166" t="s">
@@ -4317,7 +4533,7 @@
       </c>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>481</v>
       </c>
       <c r="D172" t="s">
@@ -4325,7 +4541,7 @@
       </c>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>483</v>
       </c>
       <c r="D173" t="s">
@@ -4333,10 +4549,10 @@
       </c>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>485</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" t="s">
         <v>486</v>
       </c>
       <c r="D174" t="s">
@@ -4344,10 +4560,10 @@
       </c>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>488</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" t="s">
         <v>223</v>
       </c>
       <c r="D175" t="s">
@@ -4355,10 +4571,10 @@
       </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>490</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" t="s">
         <v>491</v>
       </c>
       <c r="D176" t="s">
@@ -4366,10 +4582,10 @@
       </c>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>493</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" t="s">
         <v>494</v>
       </c>
       <c r="D177" t="s">
@@ -4377,7 +4593,7 @@
       </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>496</v>
       </c>
       <c r="D178" t="s">
@@ -4393,10 +4609,10 @@
       </c>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>500</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" t="s">
         <v>501</v>
       </c>
       <c r="D180" t="s">
@@ -4412,6 +4628,287 @@
       </c>
       <c r="D181" t="s">
         <v>505</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D183" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D184" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D185" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D186" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C187" t="s">
+        <v>287</v>
+      </c>
+      <c r="D187" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D189" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D190" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D191" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D192" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D193" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D194" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D195" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D196" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D197" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D198" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D199" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D200" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D201" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D202" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D203" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D204" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D205" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D206" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
+        <v>575</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D207" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664">
   <si>
     <t>free</t>
   </si>
@@ -1748,6 +1748,264 @@
   </si>
   <si>
     <t>能吃苦耐劳的 坚强的</t>
+  </si>
+  <si>
+    <t>allay</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>减轻 缓和</t>
+  </si>
+  <si>
+    <t>testimony to</t>
+  </si>
+  <si>
+    <t>evidence of</t>
+  </si>
+  <si>
+    <t>证词 证据</t>
+  </si>
+  <si>
+    <t>vast</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>巨大的</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>限制 范围</t>
+  </si>
+  <si>
+    <t>presumably</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>大概 据推测</t>
+  </si>
+  <si>
+    <t>formidable</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>可怕的 难以对付的</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>意图 目的</t>
+  </si>
+  <si>
+    <t>scurrying</t>
+  </si>
+  <si>
+    <t>rushing</t>
+  </si>
+  <si>
+    <t>急匆匆地走</t>
+  </si>
+  <si>
+    <t>subjected</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>遭受 服从</t>
+  </si>
+  <si>
+    <t>essence</t>
+  </si>
+  <si>
+    <t>basic nature</t>
+  </si>
+  <si>
+    <t>本质 实质</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>hire</t>
+  </si>
+  <si>
+    <t>从事 聘用</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t>完整的 整体</t>
+  </si>
+  <si>
+    <t>grumble</t>
+  </si>
+  <si>
+    <t>complain</t>
+  </si>
+  <si>
+    <t>发牢骚 抱怨</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>exactly alike</t>
+  </si>
+  <si>
+    <t>完全相同的</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>sedentary</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>坐着的</t>
+  </si>
+  <si>
+    <t>prolific</t>
+  </si>
+  <si>
+    <t>productive</t>
+  </si>
+  <si>
+    <t>富饶的，potential 潜在的</t>
+  </si>
+  <si>
+    <t>antecedent</t>
+  </si>
+  <si>
+    <t>predecessor</t>
+  </si>
+  <si>
+    <t>祖先</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>现场 地点 场所</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>decay</t>
+  </si>
+  <si>
+    <t>腐烂</t>
+  </si>
+  <si>
+    <t>thereby</t>
+  </si>
+  <si>
+    <t>by that means</t>
+  </si>
+  <si>
+    <t>由此 从而</t>
+  </si>
+  <si>
+    <t>meteoric</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>流星的 疾速的</t>
+  </si>
+  <si>
+    <t>apace with</t>
+  </si>
+  <si>
+    <t>as fast as</t>
+  </si>
+  <si>
+    <t>apace 飞速的 飞快的</t>
+  </si>
+  <si>
+    <t>depict</t>
+  </si>
+  <si>
+    <t>describ</t>
+  </si>
+  <si>
+    <t>描述 描绘</t>
+  </si>
+  <si>
+    <t>foremost</t>
+  </si>
+  <si>
+    <t>most focused</t>
+  </si>
+  <si>
+    <t>最重要的 首先 第一</t>
+  </si>
+  <si>
+    <t>assumption</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>采取 假定 假设</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>跨越</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>recognize</t>
+  </si>
+  <si>
+    <t>欣赏 鉴别 感激 涨价</t>
+  </si>
+  <si>
+    <t>convergence</t>
+  </si>
+  <si>
+    <t>gathering</t>
+  </si>
+  <si>
+    <t>汇聚</t>
   </si>
 </sst>
 </file>
@@ -1757,8 +2015,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1798,7 +2056,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1822,6 +2095,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1836,8 +2117,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1851,18 +2148,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1871,37 +2160,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1941,7 +2199,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,25 +2301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,73 +2319,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,49 +2355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,17 +2390,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2157,6 +2409,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2188,26 +2455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2225,94 +2483,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2321,43 +2579,43 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2692,10 +2950,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D207"/>
+  <dimension ref="B1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4631,10 +4889,10 @@
       </c>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>506</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" t="s">
         <v>34</v>
       </c>
       <c r="D182" t="s">
@@ -4642,10 +4900,10 @@
       </c>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>508</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" t="s">
         <v>509</v>
       </c>
       <c r="D183" t="s">
@@ -4653,10 +4911,10 @@
       </c>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>511</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" t="s">
         <v>512</v>
       </c>
       <c r="D184" t="s">
@@ -4664,10 +4922,10 @@
       </c>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>514</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" t="s">
         <v>515</v>
       </c>
       <c r="D185" t="s">
@@ -4675,10 +4933,10 @@
       </c>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>251</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" t="s">
         <v>517</v>
       </c>
       <c r="D186" t="s">
@@ -4686,7 +4944,7 @@
       </c>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>518</v>
       </c>
       <c r="C187" t="s">
@@ -4697,19 +4955,18 @@
       </c>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s">
         <v>520</v>
       </c>
-      <c r="C188" s="1"/>
       <c r="D188" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>522</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" t="s">
         <v>523</v>
       </c>
       <c r="D189" t="s">
@@ -4717,10 +4974,10 @@
       </c>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>525</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" t="s">
         <v>526</v>
       </c>
       <c r="D190" t="s">
@@ -4728,10 +4985,10 @@
       </c>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>528</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" t="s">
         <v>529</v>
       </c>
       <c r="D191" t="s">
@@ -4739,10 +4996,10 @@
       </c>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>531</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" t="s">
         <v>532</v>
       </c>
       <c r="D192" t="s">
@@ -4750,10 +5007,10 @@
       </c>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>534</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" t="s">
         <v>535</v>
       </c>
       <c r="D193" t="s">
@@ -4761,10 +5018,10 @@
       </c>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>537</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" t="s">
         <v>538</v>
       </c>
       <c r="D194" t="s">
@@ -4772,10 +5029,10 @@
       </c>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>540</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" t="s">
         <v>541</v>
       </c>
       <c r="D195" t="s">
@@ -4783,10 +5040,10 @@
       </c>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>543</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" t="s">
         <v>544</v>
       </c>
       <c r="D196" t="s">
@@ -4794,10 +5051,10 @@
       </c>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>546</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" t="s">
         <v>547</v>
       </c>
       <c r="D197" t="s">
@@ -4805,10 +5062,10 @@
       </c>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>549</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" t="s">
         <v>550</v>
       </c>
       <c r="D198" t="s">
@@ -4816,7 +5073,7 @@
       </c>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>552</v>
       </c>
       <c r="D199" t="s">
@@ -4824,10 +5081,10 @@
       </c>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>554</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" t="s">
         <v>555</v>
       </c>
       <c r="D200" t="s">
@@ -4835,10 +5092,10 @@
       </c>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>557</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" t="s">
         <v>558</v>
       </c>
       <c r="D201" t="s">
@@ -4846,10 +5103,10 @@
       </c>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>560</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" t="s">
         <v>561</v>
       </c>
       <c r="D202" t="s">
@@ -4857,10 +5114,10 @@
       </c>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
         <v>563</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" t="s">
         <v>564</v>
       </c>
       <c r="D203" t="s">
@@ -4868,10 +5125,10 @@
       </c>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s">
         <v>566</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" t="s">
         <v>567</v>
       </c>
       <c r="D204" t="s">
@@ -4879,10 +5136,10 @@
       </c>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s">
         <v>569</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" t="s">
         <v>570</v>
       </c>
       <c r="D205" t="s">
@@ -4890,10 +5147,10 @@
       </c>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s">
         <v>572</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" t="s">
         <v>573</v>
       </c>
       <c r="D206" t="s">
@@ -4904,11 +5161,330 @@
       <c r="B207" t="s">
         <v>575</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" t="s">
         <v>576</v>
       </c>
       <c r="D207" t="s">
         <v>577</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D208" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D209" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D210" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D211" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D212" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D213" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D214" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D215" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D216" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D217" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D218" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D219" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D220" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D221" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D222" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D223" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D224" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D225" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D226" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" t="s">
+        <v>634</v>
+      </c>
+      <c r="C227" t="s">
+        <v>635</v>
+      </c>
+      <c r="D227" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D228" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D229" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D230" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D231" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D232" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D233" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D234" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="B235" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D235" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D236" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/reading.xlsx
+++ b/reading.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13515" windowHeight="4770"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
     <t>argument</t>
   </si>
   <si>
-    <t>争论</t>
+    <t>争论，interrupt打断</t>
   </si>
   <si>
     <t>propel</t>
@@ -1456,7 +1456,7 @@
     <t>sophisticated</t>
   </si>
   <si>
-    <t>复杂的</t>
+    <t>复杂的，approximately大约</t>
   </si>
   <si>
     <t>timid</t>
@@ -2013,19 +2013,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2035,14 +2028,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2056,7 +2050,70 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2079,55 +2136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2140,39 +2149,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2193,7 +2186,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2205,25 +2288,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2235,139 +2354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,39 +2371,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2425,6 +2385,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2456,6 +2425,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2474,7 +2458,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2483,156 +2476,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2688,6 +2678,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2696,7 +2691,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2943,7 +2938,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2952,15 +2946,15 @@
   <sheetPr/>
   <dimension ref="B1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="21.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="39.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="51.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -5169,10 +5163,10 @@
       </c>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s">
         <v>578</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" t="s">
         <v>579</v>
       </c>
       <c r="D208" t="s">
@@ -5180,10 +5174,10 @@
       </c>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>581</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" t="s">
         <v>582</v>
       </c>
       <c r="D209" t="s">
@@ -5191,10 +5185,10 @@
       </c>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s">
         <v>584</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" t="s">
         <v>585</v>
       </c>
       <c r="D210" t="s">
@@ -5202,10 +5196,10 @@
       </c>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>175</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" t="s">
         <v>587</v>
       </c>
       <c r="D211" t="s">
@@ -5213,10 +5207,10 @@
       </c>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s">
         <v>589</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" t="s">
         <v>590</v>
       </c>
       <c r="D212" t="s">
@@ -5224,10 +5218,10 @@
       </c>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
         <v>592</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" t="s">
         <v>593</v>
       </c>
       <c r="D213" t="s">
@@ -5235,10 +5229,10 @@
       </c>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s">
         <v>595</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" t="s">
         <v>596</v>
       </c>
       <c r="D214" t="s">
@@ -5246,10 +5240,10 @@
       </c>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s">
         <v>598</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" t="s">
         <v>599</v>
       </c>
       <c r="D215" t="s">
@@ -5257,10 +5251,10 @@
       </c>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="1" t="s">
+      <c r="B216" t="s">
         <v>601</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" t="s">
         <v>602</v>
       </c>
       <c r="D216" t="s">
@@ -5268,10 +5262,10 @@
       </c>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="1" t="s">
+      <c r="B217" t="s">
         <v>604</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" t="s">
         <v>605</v>
       </c>
       <c r="D217" t="s">
@@ -5279,10 +5273,10 @@
       </c>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="1" t="s">
+      <c r="B218" t="s">
         <v>607</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" t="s">
         <v>608</v>
       </c>
       <c r="D218" t="s">
@@ -5290,10 +5284,10 @@
       </c>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s">
         <v>610</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" t="s">
         <v>611</v>
       </c>
       <c r="D219" t="s">
@@ -5301,10 +5295,10 @@
       </c>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="1" t="s">
+      <c r="B220" t="s">
         <v>613</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" t="s">
         <v>614</v>
       </c>
       <c r="D220" t="s">
@@ -5312,10 +5306,10 @@
       </c>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="1" t="s">
+      <c r="B221" t="s">
         <v>616</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" t="s">
         <v>617</v>
       </c>
       <c r="D221" t="s">
@@ -5323,10 +5317,10 @@
       </c>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="1" t="s">
+      <c r="B222" t="s">
         <v>619</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" t="s">
         <v>620</v>
       </c>
       <c r="D222" t="s">
@@ -5334,10 +5328,10 @@
       </c>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="1" t="s">
+      <c r="B223" t="s">
         <v>622</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" t="s">
         <v>623</v>
       </c>
       <c r="D223" t="s">
@@ -5345,10 +5339,10 @@
       </c>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="1" t="s">
+      <c r="B224" t="s">
         <v>625</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" t="s">
         <v>626</v>
       </c>
       <c r="D224" t="s">
@@ -5356,10 +5350,10 @@
       </c>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="1" t="s">
+      <c r="B225" t="s">
         <v>628</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" t="s">
         <v>629</v>
       </c>
       <c r="D225" t="s">
@@ -5367,10 +5361,10 @@
       </c>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="1" t="s">
+      <c r="B226" t="s">
         <v>631</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" t="s">
         <v>632</v>
       </c>
       <c r="D226" t="s">
@@ -5389,10 +5383,10 @@
       </c>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="1" t="s">
+      <c r="B228" t="s">
         <v>637</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" t="s">
         <v>638</v>
       </c>
       <c r="D228" t="s">
@@ -5400,10 +5394,10 @@
       </c>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s">
         <v>640</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" t="s">
         <v>641</v>
       </c>
       <c r="D229" t="s">
@@ -5411,10 +5405,10 @@
       </c>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s">
         <v>643</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" t="s">
         <v>644</v>
       </c>
       <c r="D230" t="s">
@@ -5422,10 +5416,10 @@
       </c>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s">
         <v>646</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" t="s">
         <v>647</v>
       </c>
       <c r="D231" t="s">
@@ -5433,10 +5427,10 @@
       </c>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="1" t="s">
+      <c r="B232" t="s">
         <v>649</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" t="s">
         <v>650</v>
       </c>
       <c r="D232" t="s">
@@ -5444,10 +5438,10 @@
       </c>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="1" t="s">
+      <c r="B233" t="s">
         <v>652</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" t="s">
         <v>653</v>
       </c>
       <c r="D233" t="s">
@@ -5455,10 +5449,10 @@
       </c>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="1" t="s">
+      <c r="B234" t="s">
         <v>655</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" t="s">
         <v>656</v>
       </c>
       <c r="D234" t="s">
@@ -5466,10 +5460,10 @@
       </c>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="1" t="s">
+      <c r="B235" t="s">
         <v>658</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" t="s">
         <v>659</v>
       </c>
       <c r="D235" t="s">
@@ -5477,10 +5471,10 @@
       </c>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="1" t="s">
+      <c r="B236" t="s">
         <v>661</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" t="s">
         <v>662</v>
       </c>
       <c r="D236" t="s">
